--- a/experiment_results/best_case/Elevator/5wise/0.9_best_case.xlsx
+++ b/experiment_results/best_case/Elevator/5wise/0.9_best_case.xlsx
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -565,7 +565,7 @@
         <v>149</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>449</v>
@@ -629,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -693,7 +693,7 @@
         <v>133</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -725,7 +725,7 @@
         <v>152</v>
       </c>
       <c r="G8">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -757,7 +757,7 @@
         <v>312</v>
       </c>
       <c r="G9">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -789,7 +789,7 @@
         <v>133</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -949,7 +949,7 @@
         <v>152</v>
       </c>
       <c r="G15">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -981,7 +981,7 @@
         <v>312</v>
       </c>
       <c r="G16">
-        <v>260</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="H17">
         <v>449</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19">
         <v>449</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>449</v>
@@ -1205,7 +1205,7 @@
         <v>152</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>449</v>
@@ -1269,7 +1269,7 @@
         <v>312</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>449</v>
@@ -1301,7 +1301,7 @@
         <v>312</v>
       </c>
       <c r="G26">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>449</v>
@@ -1333,7 +1333,7 @@
         <v>312</v>
       </c>
       <c r="G27">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>449</v>
@@ -1365,7 +1365,7 @@
         <v>298</v>
       </c>
       <c r="G28">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>449</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="H29">
         <v>449</v>
@@ -1429,7 +1429,7 @@
         <v>312</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>449</v>
@@ -1461,7 +1461,7 @@
         <v>298</v>
       </c>
       <c r="G31">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>449</v>
@@ -1493,7 +1493,7 @@
         <v>152</v>
       </c>
       <c r="G32">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H32">
         <v>449</v>
@@ -1525,7 +1525,7 @@
         <v>152</v>
       </c>
       <c r="G33">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <v>449</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -1666,7 +1666,7 @@
         <v>149</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>449</v>
@@ -1794,7 +1794,7 @@
         <v>133</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -1826,7 +1826,7 @@
         <v>152</v>
       </c>
       <c r="G8">
-        <v>163</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -1858,7 +1858,7 @@
         <v>312</v>
       </c>
       <c r="G9">
-        <v>149</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -1890,7 +1890,7 @@
         <v>133</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -2050,7 +2050,7 @@
         <v>152</v>
       </c>
       <c r="G15">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -2082,7 +2082,7 @@
         <v>312</v>
       </c>
       <c r="G16">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>449</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H21">
         <v>449</v>
@@ -2306,7 +2306,7 @@
         <v>152</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>449</v>
@@ -2402,7 +2402,7 @@
         <v>312</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>449</v>
@@ -2434,7 +2434,7 @@
         <v>312</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>449</v>
@@ -2466,7 +2466,7 @@
         <v>298</v>
       </c>
       <c r="G28">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>449</v>
@@ -2498,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H29">
         <v>449</v>
@@ -2562,7 +2562,7 @@
         <v>298</v>
       </c>
       <c r="G31">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>449</v>
@@ -2594,7 +2594,7 @@
         <v>152</v>
       </c>
       <c r="G32">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="H32">
         <v>449</v>
@@ -2626,7 +2626,7 @@
         <v>152</v>
       </c>
       <c r="G33">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H33">
         <v>449</v>
@@ -2767,7 +2767,7 @@
         <v>149</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>449</v>
@@ -2927,7 +2927,7 @@
         <v>152</v>
       </c>
       <c r="G8">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -3151,7 +3151,7 @@
         <v>152</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -3215,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>449</v>
@@ -3407,7 +3407,7 @@
         <v>152</v>
       </c>
       <c r="G23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>449</v>
@@ -3535,7 +3535,7 @@
         <v>312</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>449</v>
@@ -3567,7 +3567,7 @@
         <v>298</v>
       </c>
       <c r="G28">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>449</v>
@@ -3663,7 +3663,7 @@
         <v>298</v>
       </c>
       <c r="G31">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="H31">
         <v>449</v>
@@ -3695,7 +3695,7 @@
         <v>152</v>
       </c>
       <c r="G32">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="H32">
         <v>449</v>
@@ -3727,7 +3727,7 @@
         <v>152</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>449</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -3868,7 +3868,7 @@
         <v>149</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>449</v>
@@ -3932,7 +3932,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="H5">
         <v>449</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="H6">
         <v>449</v>
@@ -3996,7 +3996,7 @@
         <v>133</v>
       </c>
       <c r="G7">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>449</v>
@@ -4028,7 +4028,7 @@
         <v>152</v>
       </c>
       <c r="G8">
-        <v>208</v>
+        <v>110</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -4060,7 +4060,7 @@
         <v>312</v>
       </c>
       <c r="G9">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -4092,7 +4092,7 @@
         <v>133</v>
       </c>
       <c r="G10">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="H13">
         <v>449</v>
@@ -4252,7 +4252,7 @@
         <v>152</v>
       </c>
       <c r="G15">
-        <v>165</v>
+        <v>33</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -4284,7 +4284,7 @@
         <v>312</v>
       </c>
       <c r="G16">
-        <v>257</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -4316,7 +4316,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="H17">
         <v>449</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H19">
         <v>449</v>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="G21">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H21">
         <v>449</v>
@@ -4508,7 +4508,7 @@
         <v>152</v>
       </c>
       <c r="G23">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="H23">
         <v>449</v>
@@ -4572,7 +4572,7 @@
         <v>312</v>
       </c>
       <c r="G25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>449</v>
@@ -4604,7 +4604,7 @@
         <v>312</v>
       </c>
       <c r="G26">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26">
         <v>449</v>
@@ -4636,7 +4636,7 @@
         <v>312</v>
       </c>
       <c r="G27">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>449</v>
@@ -4668,7 +4668,7 @@
         <v>298</v>
       </c>
       <c r="G28">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>449</v>
@@ -4700,7 +4700,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>147</v>
+        <v>17</v>
       </c>
       <c r="H29">
         <v>449</v>
@@ -4732,7 +4732,7 @@
         <v>312</v>
       </c>
       <c r="G30">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>449</v>
@@ -4764,7 +4764,7 @@
         <v>298</v>
       </c>
       <c r="G31">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>449</v>
@@ -4796,7 +4796,7 @@
         <v>152</v>
       </c>
       <c r="G32">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H32">
         <v>449</v>
@@ -4828,7 +4828,7 @@
         <v>152</v>
       </c>
       <c r="G33">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="H33">
         <v>449</v>
@@ -4937,7 +4937,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H2">
         <v>449</v>
@@ -4969,7 +4969,7 @@
         <v>149</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>449</v>
@@ -5129,7 +5129,7 @@
         <v>152</v>
       </c>
       <c r="G8">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="H8">
         <v>449</v>
@@ -5161,7 +5161,7 @@
         <v>312</v>
       </c>
       <c r="G9">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>449</v>
@@ -5193,7 +5193,7 @@
         <v>133</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10">
         <v>449</v>
@@ -5353,7 +5353,7 @@
         <v>152</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>449</v>
@@ -5385,7 +5385,7 @@
         <v>312</v>
       </c>
       <c r="G16">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>449</v>
@@ -5417,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>449</v>
@@ -5609,7 +5609,7 @@
         <v>152</v>
       </c>
       <c r="G23">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H23">
         <v>449</v>
@@ -5641,7 +5641,7 @@
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="H24">
         <v>449</v>
@@ -5737,7 +5737,7 @@
         <v>312</v>
       </c>
       <c r="G27">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H27">
         <v>449</v>
@@ -5769,7 +5769,7 @@
         <v>298</v>
       </c>
       <c r="G28">
-        <v>56</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>449</v>
@@ -5833,7 +5833,7 @@
         <v>312</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>449</v>
@@ -5865,7 +5865,7 @@
         <v>298</v>
       </c>
       <c r="G31">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="H31">
         <v>449</v>
@@ -5897,7 +5897,7 @@
         <v>152</v>
       </c>
       <c r="G32">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="H32">
         <v>449</v>
